--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:16:32+00:00</t>
+    <t>2022-08-08T12:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$33</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:55:58+00:00</t>
+    <t>2022-08-09T09:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1282,6 +1285,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1629,7 +1647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1740,7 +1758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1851,7 +1869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2071,7 +2089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2293,7 +2311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2404,7 +2422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2515,7 +2533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2628,7 +2646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2854,7 +2872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -2977,7 +2995,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>78</v>
@@ -3078,7 +3096,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>191</v>
       </c>
@@ -3205,7 +3223,7 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3302,7 +3320,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>213</v>
       </c>
@@ -3415,7 +3433,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>224</v>
       </c>
@@ -3425,7 +3443,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -3544,7 +3562,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3657,7 +3675,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3770,7 +3788,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3867,7 +3885,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>262</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>269</v>
       </c>
@@ -4109,7 +4127,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4204,7 +4222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>284</v>
       </c>
@@ -4317,7 +4335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>292</v>
       </c>
@@ -4426,7 +4444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>297</v>
       </c>
@@ -4537,7 +4555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>300</v>
       </c>
@@ -4650,7 +4668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>305</v>
       </c>
@@ -4779,7 +4797,7 @@
         <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -4890,7 +4908,7 @@
         <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -4987,7 +5005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>325</v>
       </c>
@@ -5114,7 +5132,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5212,6 +5230,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM33">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>